--- a/results/RQ1.xlsx
+++ b/results/RQ1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Dropbox\ICSE2021-HFlaw\SupplementalMaterial\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB39E5E-4B13-423A-AD56-9D88C07EDD2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BBC8C0-3C8A-4D06-97E2-896A621AFC61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RQ1_a" sheetId="2" r:id="rId1"/>
@@ -20,9 +20,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">RQ1_d!$A$2:$A$72</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">RQ1_d!$C$2:$C$72</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">RQ1_d!$B$2:$B$72</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">RQ1_d!$A$2:$A$72</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">RQ1_d!$B$2:$B$72</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">RQ1_d!$C$2:$C$72</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="30">
   <si>
     <t>Accumulo</t>
   </si>
@@ -755,7 +755,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>RQ1_c!$B$1</c:f>
+              <c:f>RQ1_c!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -845,7 +845,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>RQ1_c!$B$2:$B$10</c:f>
+              <c:f>RQ1_c!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="9"/>
@@ -891,7 +891,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>RQ1_c!$C$1</c:f>
+              <c:f>RQ1_c!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -981,7 +981,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>RQ1_c!$C$2:$C$10</c:f>
+              <c:f>RQ1_c!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1223,10 +1223,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1311,10 +1311,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3633,16 +3633,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>396875</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>225425</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>92075</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>530225</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3719,7 +3719,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4981575" y="1600200"/>
+              <a:off x="4981575" y="1784350"/>
               <a:ext cx="4572000" cy="1377950"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3797,7 +3797,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4987925" y="127000"/>
+              <a:off x="4987925" y="311150"/>
               <a:ext cx="4572000" cy="1384300"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6184,8 +6184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ED76CF-A3B0-4CC9-B201-014F8FD896B9}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6335,7 +6335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
@@ -7351,118 +7351,145 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F43C5A6-43BE-4CC8-AA1B-A38E4FA0D830}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>7.8686493184634401E-2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>0.57047264737459702</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>8.6741016109045804E-2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>0.58257978087172801</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
         <v>9.4485749690210605E-2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>0.76869932741348801</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>4.9256505576208101E-2</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>0.49941434211097102</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
         <v>6.6914498141263906E-2</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>0.633755802430501</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" s="1">
         <v>5.8550185873605901E-2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>0.72665249588590197</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C8" s="1">
         <v>7.6827757125154897E-2</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>0.70761429301466205</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C9" s="1">
         <v>9.6034696406443604E-2</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>0.72796705851099097</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1">
+      <c r="C10" s="1">
         <v>6.5365551425030893E-2</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>0.89921223354958202</v>
       </c>
     </row>
@@ -7477,7 +7504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0E7E27-0A25-454A-9B3E-5024A3DF0393}">
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
